--- a/周报/游赟-2018141494244.xlsx
+++ b/周报/游赟-2018141494244.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习课件\软件项目管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry Yummy\Downloads\Compressed\SotfwareManagement_CovidAid-main\SotfwareManagement_CovidAid-main\周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3050AF02-E5F4-43D5-BA1D-BF1CE2038016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA98491-186F-42F2-8BB6-635660EB4DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -141,38 +141,14 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>设计系统的模块组件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改文本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>本 周 工 作 记 录</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>原型界面进行整合</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改界面文本</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>设计组件</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在组件显示错误</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>修改代码</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -181,26 +157,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>整合原型界面</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>原型之间逻辑错误</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>设计前端框架</t>
   </si>
   <si>
-    <t>设计前端框架</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>为后端设计接口</t>
-  </si>
-  <si>
-    <t>为后端设计接口</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -225,6 +185,47 @@
         <charset val="134"/>
       </rPr>
       <t>总的来说完成了预期任务进度</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面显示不兼容</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转失败</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改接口名称保证对应</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发前端组件</t>
+  </si>
+  <si>
+    <t>开发前端组件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>减少冗余代码</t>
+  </si>
+  <si>
+    <t>减少冗余代码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">工作周报    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="幼圆"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">日期：       4.23   </t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -1074,7 +1075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1127,6 +1128,150 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1142,161 +1287,26 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1726,7 +1736,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1754,69 +1764,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
+      <c r="A1" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="54" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="56"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1825,530 +1835,530 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="H5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="H6" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="38" t="s">
+      <c r="A8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="41"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="42"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="D10" s="66" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65">
+        <v>4.18</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="33">
+      <c r="E10" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="62">
         <v>1</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="62">
+        <v>2</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65">
+        <v>4.2</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="62">
+        <v>3</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65">
+        <v>4.21</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="23">
+        <v>100</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="62">
+        <v>4</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="63"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65">
+        <v>4.22</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32">
-        <v>4.12</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="72">
-        <v>1</v>
-      </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="33">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32">
-        <v>4.13</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="33">
-        <v>3</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="76">
+      <c r="E18" s="23">
+        <v>30</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="62">
+        <v>5</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="30"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="23">
+        <v>60</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="62">
+        <v>6</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65">
+        <v>4.24</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="23">
         <v>100</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="33">
-        <v>4</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="76">
-        <v>30</v>
-      </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="33">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
-        <v>4.16</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="76">
-        <v>0</v>
-      </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="33">
-        <v>6</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32">
-        <v>4.17</v>
-      </c>
-      <c r="D22" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="76">
-        <v>0</v>
-      </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="33">
+      <c r="F22" s="24"/>
+      <c r="G22" s="62">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="59"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2356,25 +2366,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="D26" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="14">
         <v>20</v>
       </c>
@@ -2382,25 +2392,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="D27" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="16">
         <v>40</v>
       </c>
@@ -2408,25 +2418,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="D28" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="14">
         <v>70</v>
       </c>
@@ -2434,25 +2444,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="D29" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="16">
         <v>100</v>
       </c>
@@ -2460,25 +2470,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="D30" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="14">
         <v>30</v>
       </c>
@@ -2486,25 +2496,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
+      <c r="D31" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="16">
         <v>60</v>
       </c>
@@ -2512,25 +2522,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
+      <c r="D32" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14">
         <v>100</v>
       </c>
@@ -2538,61 +2548,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="A34" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="72"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2625,54 +2635,36 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -2689,36 +2681,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2759,69 +2769,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="50"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="54" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="56"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2830,480 +2840,480 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="58"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="50"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="47"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="38" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="41"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="53"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39" t="s">
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39" t="s">
+      <c r="M9" s="54"/>
+      <c r="N9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="42"/>
+      <c r="O9" s="55"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65">
         <v>10.17</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="33">
+      <c r="D10" s="27"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="62">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65">
         <v>10.18</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="33">
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="62">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65">
         <v>10.19</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="33">
+      <c r="D14" s="27"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="62">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="33">
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="62">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="33">
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="62">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="59"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="30"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="33">
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="62">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="59"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="30"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65">
         <v>10.23</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="33">
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="62">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="59"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="30"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39" t="s">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -3311,215 +3321,215 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="34"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="36"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="34"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="72"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3552,33 +3562,57 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="A20:B21"/>
@@ -3595,57 +3629,33 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/游赟-2018141494244.xlsx
+++ b/周报/游赟-2018141494244.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习课件\软件项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EAF12FF-0E6E-4A1A-A59A-FA74E599247A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D7CC5-4DA1-4B4A-9B80-BF3CD35AB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,12 +155,6 @@
   <si>
     <t>是</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计前端框架</t>
-  </si>
-  <si>
-    <t>为后端设计接口</t>
   </si>
   <si>
     <r>
@@ -189,25 +183,31 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>接口跳转错误</t>
+    <t>设计业务逻辑</t>
+  </si>
+  <si>
+    <t>处理后端数据</t>
+  </si>
+  <si>
+    <t>数据库类型转换错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>页面controller显示错误</t>
+    <t>插入数据错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>设计业务逻辑</t>
-  </si>
-  <si>
-    <t>设计业务逻辑</t>
+    <t>规范代码</t>
+  </si>
+  <si>
+    <t>规范代码</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>处理后端数据</t>
-  </si>
-  <si>
-    <t>处理后端数据</t>
+    <t>修改js函数</t>
+  </si>
+  <si>
+    <t>修改js函数</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1109,176 +1109,176 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1707,7 +1707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32:M32"/>
     </sheetView>
   </sheetViews>
@@ -1736,69 +1736,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="42"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1807,530 +1807,530 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="53"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65">
-        <v>4.26</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="62">
+      <c r="B10" s="27"/>
+      <c r="C10" s="32">
+        <v>5.3</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="63"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="63"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="29">
-        <v>1</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="62">
+      <c r="B12" s="27"/>
+      <c r="C12" s="32">
+        <v>5.4</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="41"/>
+      <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="63"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="63"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65">
-        <v>4.28</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="62">
+      <c r="B14" s="27"/>
+      <c r="C14" s="32">
+        <v>5.5</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="33">
         <v>3</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="63"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="63"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65">
-        <v>4.29</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="23">
+      <c r="B16" s="27"/>
+      <c r="C16" s="32">
+        <v>5.6</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="76">
         <v>100</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="62">
+      <c r="F16" s="41"/>
+      <c r="G16" s="33">
         <v>4</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22" t="s">
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22" t="s">
+      <c r="M16" s="28"/>
+      <c r="N16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="63"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="63"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65">
-        <v>4.3</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="23">
+      <c r="B18" s="27"/>
+      <c r="C18" s="32">
+        <v>5.8</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="76">
         <v>30</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="62">
+      <c r="F18" s="41"/>
+      <c r="G18" s="33">
         <v>5</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="22" t="s">
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="22" t="s">
+      <c r="M18" s="48"/>
+      <c r="N18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="30"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
+        <v>5.9</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="76">
+        <v>0</v>
+      </c>
+      <c r="F20" s="41"/>
+      <c r="G20" s="33">
+        <v>6</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D22" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="76">
         <v>0</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="62">
-        <v>6</v>
-      </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65">
-        <v>5.2</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="62">
+      <c r="F22" s="41"/>
+      <c r="G22" s="33">
         <v>7</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="30"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2338,25 +2338,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="61" t="s">
+      <c r="D26" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="14">
         <v>20</v>
       </c>
@@ -2364,25 +2364,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="16">
         <v>40</v>
       </c>
@@ -2390,25 +2390,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="14">
         <v>70</v>
       </c>
@@ -2416,25 +2416,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="16">
         <v>100</v>
       </c>
@@ -2442,25 +2442,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="14">
         <v>30</v>
       </c>
@@ -2468,25 +2468,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="16">
         <v>60</v>
       </c>
@@ -2494,25 +2494,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="D32" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="14">
         <v>100</v>
       </c>
@@ -2520,61 +2520,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="72"/>
+      <c r="A34" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2607,6 +2607,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -2623,84 +2701,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2741,69 +2741,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="36"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="42"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2812,480 +2812,480 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="50"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="47"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="51" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="53"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="55"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65">
+      <c r="B10" s="27"/>
+      <c r="C10" s="32">
         <v>10.17</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="62">
+      <c r="D10" s="38"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="63"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="63"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65">
+      <c r="B12" s="27"/>
+      <c r="C12" s="32">
         <v>10.18</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="62">
+      <c r="D12" s="38"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="63"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="63"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65">
+      <c r="B14" s="27"/>
+      <c r="C14" s="32">
         <v>10.19</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="62">
+      <c r="D14" s="38"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="33">
         <v>3</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="63"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="63"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="62">
+      <c r="D16" s="38"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="33">
         <v>4</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="63"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="63"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65">
+      <c r="B18" s="27"/>
+      <c r="C18" s="32">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="62">
+      <c r="D18" s="38"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="33">
         <v>5</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="30"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="32"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="62">
+      <c r="D20" s="38"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="33">
         <v>6</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="30"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65">
+      <c r="B22" s="27"/>
+      <c r="C22" s="32">
         <v>10.23</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="62">
+      <c r="D22" s="38"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="33">
         <v>7</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="30"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="32"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -3293,215 +3293,215 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="60" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="60"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="58"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="60"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="58"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="60" t="s">
+      <c r="A30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="60"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="58"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="60"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="72"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3534,25 +3534,65 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="A12:B13"/>
@@ -3569,65 +3609,25 @@
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/游赟-2018141494244.xlsx
+++ b/周报/游赟-2018141494244.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习课件\软件项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D7CC5-4DA1-4B4A-9B80-BF3CD35AB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85B3F3-7C42-49CD-B6C0-2AE12C2B4B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -146,14 +146,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改代码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -183,31 +175,35 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>设计业务逻辑</t>
-  </si>
-  <si>
-    <t>处理后端数据</t>
-  </si>
-  <si>
-    <t>数据库类型转换错误</t>
+    <t>规范代码</t>
+  </si>
+  <si>
+    <t>修改js函数</t>
+  </si>
+  <si>
+    <t>数据显示错误</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>插入数据错误</t>
+    <t>在前端进行修改</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>规范代码</t>
-  </si>
-  <si>
-    <t>规范代码</t>
+    <t>是/否解决</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>修改js函数</t>
-  </si>
-  <si>
-    <t>修改js函数</t>
+    <t>规范js函数</t>
+  </si>
+  <si>
+    <t>规范js函数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端代码模块化</t>
+  </si>
+  <si>
+    <t>前端代码模块化</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1109,6 +1105,150 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1124,161 +1264,17 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1707,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:M32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1736,69 +1732,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="73"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1807,530 +1803,524 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
+      <c r="H5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="H6" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32">
-        <v>5.3</v>
-      </c>
-      <c r="D10" s="38" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="66">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="30">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="65">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65">
+        <v>5.12</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="30">
+        <v>3</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="7"/>
+    </row>
+    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65">
+        <v>5.13</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="23">
+        <v>100</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="30">
+        <v>4</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65">
+        <v>5.14</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="23">
+        <v>30</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="30">
+        <v>5</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65">
+        <v>5.15</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="30">
+        <v>6</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65">
+        <v>5.16</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="30">
+        <v>7</v>
+      </c>
+      <c r="H22" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="34">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="33">
-        <v>1</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32">
-        <v>5.4</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="40">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="33">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32">
-        <v>5.5</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0.7</v>
-      </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="33">
-        <v>3</v>
-      </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32">
-        <v>5.6</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="76">
-        <v>100</v>
-      </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="33">
-        <v>4</v>
-      </c>
-      <c r="H16" s="28" t="s">
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" s="31"/>
+      <c r="N22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32">
-        <v>5.8</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="76">
-        <v>30</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="33">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="48"/>
-      <c r="N18" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="48"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
-        <v>5.9</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="76">
-        <v>0</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="33">
-        <v>6</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="76">
-        <v>0</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="33">
-        <v>7</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="48"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2338,25 +2328,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="D26" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="14">
         <v>20</v>
       </c>
@@ -2364,25 +2354,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="D27" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="16">
         <v>40</v>
       </c>
@@ -2390,25 +2380,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="D28" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="14">
         <v>70</v>
       </c>
@@ -2416,25 +2406,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="D29" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="16">
         <v>100</v>
       </c>
@@ -2442,25 +2432,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="D30" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="14">
         <v>30</v>
       </c>
@@ -2468,25 +2458,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="D31" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="16">
         <v>60</v>
       </c>
@@ -2494,25 +2484,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
+      <c r="D32" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="14">
         <v>100</v>
       </c>
@@ -2520,61 +2510,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="A34" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="72"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2607,54 +2597,36 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="A30:B30"/>
@@ -2671,36 +2643,54 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2741,69 +2731,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="73"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2812,480 +2802,480 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="48"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="48"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="57"/>
+      <c r="O9" s="56"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65">
         <v>10.17</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="33">
+      <c r="D10" s="27"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="30">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="63"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65">
         <v>10.18</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="33">
+      <c r="D12" s="27"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="30">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="63"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="63"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65">
         <v>10.19</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="33">
+      <c r="D14" s="27"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="30">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="63"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="33">
+      <c r="D16" s="27"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="30">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="63"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="33">
+      <c r="D18" s="27"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="30">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="48"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="31"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
+      <c r="B20" s="64"/>
+      <c r="C20" s="65">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="33">
+      <c r="D20" s="27"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="30">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="48"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="31"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65">
         <v>10.23</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="33">
+      <c r="D22" s="27"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="30">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="48"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="31"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -3293,215 +3283,215 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="75"/>
+      <c r="O33" s="76"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="72"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3534,33 +3524,57 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="A20:B21"/>
@@ -3577,57 +3591,33 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/游赟-2018141494244.xlsx
+++ b/周报/游赟-2018141494244.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习课件\软件项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85B3F3-7C42-49CD-B6C0-2AE12C2B4B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EEBCF4-D70A-4E2C-A26F-B2C445F822EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第x周工作周报" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -175,35 +175,23 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>规范代码</t>
-  </si>
-  <si>
-    <t>修改js函数</t>
-  </si>
-  <si>
-    <t>数据显示错误</t>
+    <t>规范js函数</t>
+  </si>
+  <si>
+    <t>前端代码模块化</t>
+  </si>
+  <si>
+    <t>合并代码</t>
+  </si>
+  <si>
+    <t>合并代码</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>在前端进行修改</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>是/否解决</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>规范js函数</t>
-  </si>
-  <si>
-    <t>规范js函数</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端代码模块化</t>
-  </si>
-  <si>
-    <t>前端代码模块化</t>
+    <t>修改样式</t>
+  </si>
+  <si>
+    <t>修改样式</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1105,176 +1093,176 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1703,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1732,69 +1720,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1803,524 +1791,518 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="H5" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="H6" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="54"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="56"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65">
+      <c r="B10" s="27"/>
+      <c r="C10" s="32">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="34">
         <v>0.2</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="30">
+      <c r="F10" s="35"/>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="H10" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="63"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="63"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65">
+      <c r="B12" s="27"/>
+      <c r="C12" s="32">
         <v>5.1100000000000003</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="40">
         <v>0.4</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="30">
+      <c r="F12" s="41"/>
+      <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="63"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="63"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65">
+      <c r="B14" s="27"/>
+      <c r="C14" s="32">
         <v>5.12</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="40">
         <v>0.7</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="30">
+      <c r="F14" s="41"/>
+      <c r="G14" s="33">
         <v>3</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="63"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="63"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65">
+      <c r="B16" s="27"/>
+      <c r="C16" s="32">
         <v>5.13</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="76">
         <v>100</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="30">
+      <c r="F16" s="41"/>
+      <c r="G16" s="33">
         <v>4</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="63"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="63"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65">
+      <c r="B18" s="27"/>
+      <c r="C18" s="32">
         <v>5.14</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="76">
         <v>30</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="30">
+      <c r="F18" s="41"/>
+      <c r="G18" s="33">
         <v>5</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="31"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
         <v>5.15</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="76">
         <v>0</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="30">
+      <c r="F20" s="41"/>
+      <c r="G20" s="33">
         <v>6</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="31"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65">
+      <c r="B22" s="27"/>
+      <c r="C22" s="32">
         <v>5.16</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="76">
         <v>0</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="30">
+      <c r="F22" s="41"/>
+      <c r="G22" s="33">
         <v>7</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="31"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2328,25 +2310,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
+      <c r="D26" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="14">
         <v>20</v>
       </c>
@@ -2354,25 +2336,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
+      <c r="D27" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="16">
         <v>40</v>
       </c>
@@ -2380,25 +2362,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="61"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="D28" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="14">
         <v>70</v>
       </c>
@@ -2406,25 +2388,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
+      <c r="D29" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="16">
         <v>100</v>
       </c>
@@ -2432,25 +2414,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="61"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
+      <c r="D30" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="14">
         <v>30</v>
       </c>
@@ -2458,25 +2440,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
+      <c r="D31" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
       <c r="N31" s="16">
         <v>60</v>
       </c>
@@ -2484,25 +2466,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="61"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="D32" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="14">
         <v>100</v>
       </c>
@@ -2510,61 +2492,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="72"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2597,6 +2579,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -2613,84 +2673,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2731,69 +2713,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="67"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="41" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="43"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="73"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2802,480 +2784,480 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="75"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="48"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="51"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="65"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="48"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="62"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="54"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="56"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="55" t="s">
+      <c r="H9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="56"/>
+      <c r="O9" s="57"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65">
+      <c r="B10" s="27"/>
+      <c r="C10" s="32">
         <v>10.17</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="30">
+      <c r="D10" s="38"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33">
         <v>1</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="63"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="29"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="63"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65">
+      <c r="B12" s="27"/>
+      <c r="C12" s="32">
         <v>10.18</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="30">
+      <c r="D12" s="38"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="33">
         <v>2</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="63"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="63"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65">
+      <c r="B14" s="27"/>
+      <c r="C14" s="32">
         <v>10.19</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="30">
+      <c r="D14" s="38"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="33">
         <v>3</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="63"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="63"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="30">
+      <c r="D16" s="38"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="33">
         <v>4</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="63"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="29"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="63"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65">
+      <c r="B18" s="27"/>
+      <c r="C18" s="32">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="30">
+      <c r="D18" s="38"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="33">
         <v>5</v>
       </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="31"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="48"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="50"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65">
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="30">
+      <c r="D20" s="38"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="33">
         <v>6</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="31"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65">
+      <c r="B22" s="27"/>
+      <c r="C22" s="32">
         <v>10.23</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="30">
+      <c r="D22" s="38"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="33">
         <v>7</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="31"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="33"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -3283,215 +3265,215 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="61"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="61"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="59"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="61"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="59"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="61" t="s">
+      <c r="A32" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="61"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="76"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="72"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3524,25 +3506,65 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="A12:B13"/>
@@ -3559,65 +3581,25 @@
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/游赟-2018141494244.xlsx
+++ b/周报/游赟-2018141494244.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习课件\软件项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EEBCF4-D70A-4E2C-A26F-B2C445F822EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51397D45-4459-4EE9-BA26-6C534B659E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第x周工作周报" sheetId="7" r:id="rId1"/>
@@ -175,23 +175,23 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>规范js函数</t>
-  </si>
-  <si>
-    <t>前端代码模块化</t>
-  </si>
-  <si>
     <t>合并代码</t>
   </si>
   <si>
-    <t>合并代码</t>
+    <t>修改样式</t>
+  </si>
+  <si>
+    <t>代码分离模块化</t>
+  </si>
+  <si>
+    <t>代码分离模块化</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>修改样式</t>
-  </si>
-  <si>
-    <t>修改样式</t>
+    <t>前端样式兼容性测试</t>
+  </si>
+  <si>
+    <t>前端样式兼容性测试</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1093,6 +1093,153 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1108,160 +1255,22 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1691,8 +1700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1720,69 +1729,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="73"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1791,130 +1800,130 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="H6" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
@@ -1925,384 +1934,384 @@
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47" t="s">
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="56"/>
+      <c r="N9" s="56" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="57"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="67">
         <v>0.2</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="33">
+      <c r="F10" s="68"/>
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32">
+      <c r="B12" s="65"/>
+      <c r="C12" s="66">
         <v>5.1100000000000003</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="30">
         <v>0.4</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="33">
+      <c r="F12" s="25"/>
+      <c r="G12" s="31">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="64"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32">
+      <c r="B14" s="65"/>
+      <c r="C14" s="66">
         <v>5.12</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="30">
         <v>0.7</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="33">
+      <c r="F14" s="25"/>
+      <c r="G14" s="31">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32">
+      <c r="B16" s="65"/>
+      <c r="C16" s="66">
         <v>5.13</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="24">
         <v>100</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="33">
+      <c r="F16" s="25"/>
+      <c r="G16" s="31">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66">
         <v>5.14</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="24">
         <v>30</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="33">
+      <c r="F18" s="25"/>
+      <c r="G18" s="31">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="48"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="32"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66">
         <v>5.15</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="24">
         <v>0</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="33">
+      <c r="F20" s="25"/>
+      <c r="G20" s="31">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="48"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="32"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66">
         <v>5.16</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="24">
         <v>0</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="33">
+      <c r="F22" s="25"/>
+      <c r="G22" s="31">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="48"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="32"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2310,25 +2319,25 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="14">
         <v>20</v>
       </c>
@@ -2336,25 +2345,25 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="16">
         <v>40</v>
       </c>
@@ -2362,25 +2371,25 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="14">
         <v>70</v>
       </c>
@@ -2388,25 +2397,25 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="16">
         <v>100</v>
       </c>
@@ -2414,25 +2423,25 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="14">
         <v>30</v>
       </c>
@@ -2440,25 +2449,25 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
+      <c r="D31" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="16">
         <v>60</v>
       </c>
@@ -2466,25 +2475,25 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
+      <c r="D32" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14">
         <v>100</v>
       </c>
@@ -2492,61 +2501,61 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="77"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="73"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="75"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2579,84 +2588,6 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -2673,6 +2604,84 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2713,69 +2722,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="41"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="73"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2784,122 +2793,122 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="75"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="65"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="62"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="49"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="46" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="56"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="55"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
@@ -2910,354 +2919,354 @@
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47" t="s">
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47" t="s">
+      <c r="M9" s="56"/>
+      <c r="N9" s="56" t="s">
         <v>12</v>
       </c>
       <c r="O9" s="57"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="32">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66">
         <v>10.17</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="33">
+      <c r="D10" s="28"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="31">
         <v>1</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="29"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="64"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="29"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="32">
+      <c r="B12" s="65"/>
+      <c r="C12" s="66">
         <v>10.18</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="33">
+      <c r="D12" s="28"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="31">
         <v>2</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="64"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="32">
+      <c r="B14" s="65"/>
+      <c r="C14" s="66">
         <v>10.19</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="33">
+      <c r="D14" s="28"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="31">
         <v>3</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="65"/>
+      <c r="C16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="33">
+      <c r="D16" s="28"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="31">
         <v>4</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="29"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="64"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="29"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="64"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="32">
+      <c r="B18" s="65"/>
+      <c r="C18" s="66">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="33">
+      <c r="D18" s="28"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="31">
         <v>5</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="48"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="32"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="50"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="32">
+      <c r="B20" s="65"/>
+      <c r="C20" s="66">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="33">
+      <c r="D20" s="28"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="31">
         <v>6</v>
       </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="48"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="32"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="50"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="32">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66">
         <v>10.23</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="33">
+      <c r="D22" s="28"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="31">
         <v>7</v>
       </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="48"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="32"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="50"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -3265,215 +3274,215 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="44"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="53"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="53"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="44"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="77"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="73"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="75"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3506,33 +3515,57 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L18:M19"/>
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="A20:B21"/>
@@ -3549,57 +3582,33 @@
     <mergeCell ref="E18:F19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>

--- a/周报/游赟-2018141494244.xlsx
+++ b/周报/游赟-2018141494244.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习课件\软件项目管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51397D45-4459-4EE9-BA26-6C534B659E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F577C56E-DC7B-4B56-9BBF-28C443DCB5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>本周工作总结</t>
   </si>
@@ -175,24 +175,10 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>合并代码</t>
-  </si>
-  <si>
-    <t>修改样式</t>
-  </si>
-  <si>
     <t>代码分离模块化</t>
   </si>
   <si>
-    <t>代码分离模块化</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>前端样式兼容性测试</t>
-  </si>
-  <si>
-    <t>前端样式兼容性测试</t>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1096,181 +1082,181 @@
     <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="26" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="19" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="21" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="13" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="14" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="10" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1701,7 +1687,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="C22" sqref="C22:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1729,69 +1715,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="42" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="44"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1800,518 +1786,518 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="H5" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+      <c r="H6" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="53" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="55"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="59"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="57"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="33">
+        <v>5.3</v>
+      </c>
+      <c r="D10" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="35">
         <v>0.2</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="31">
+      <c r="F10" s="36"/>
+      <c r="G10" s="34">
         <v>1</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="64"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="64"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="33">
+        <v>5.31</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="41">
         <v>0.4</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="31">
+      <c r="F12" s="42"/>
+      <c r="G12" s="34">
         <v>2</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="64"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="64"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66">
-        <v>5.12</v>
-      </c>
-      <c r="D14" s="28" t="s">
+      <c r="B14" s="28"/>
+      <c r="C14" s="33">
+        <v>6.1</v>
+      </c>
+      <c r="D14" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="41">
         <v>0.7</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="31">
+      <c r="F14" s="42"/>
+      <c r="G14" s="34">
         <v>3</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="64"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="64"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66">
-        <v>5.13</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="33">
+        <v>6.2</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="79">
         <v>100</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="31">
+      <c r="F16" s="42"/>
+      <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="64"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="64"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66">
-        <v>5.14</v>
-      </c>
-      <c r="D18" s="28" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="33">
+        <v>6.3</v>
+      </c>
+      <c r="D18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="79">
         <v>30</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="31">
+      <c r="F18" s="42"/>
+      <c r="G18" s="34">
         <v>5</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="32"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="49"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66">
-        <v>5.15</v>
-      </c>
-      <c r="D20" s="28" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="33">
+        <v>6.4</v>
+      </c>
+      <c r="D20" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="79">
         <v>0</v>
       </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="31">
+      <c r="F20" s="42"/>
+      <c r="G20" s="34">
         <v>6</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="32"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="49"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66">
-        <v>5.16</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="D22" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="79">
         <v>0</v>
       </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="31">
+      <c r="F22" s="42"/>
+      <c r="G22" s="34">
         <v>7</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="32"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -2319,25 +2305,23 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="14">
         <v>20</v>
       </c>
@@ -2345,25 +2329,23 @@
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="16">
         <v>40</v>
       </c>
@@ -2371,25 +2353,23 @@
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
       <c r="N28" s="14">
         <v>70</v>
       </c>
@@ -2397,25 +2377,23 @@
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="16">
         <v>100</v>
       </c>
@@ -2423,23 +2401,21 @@
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="81"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="57"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="14">
@@ -2449,25 +2425,23 @@
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
       <c r="N31" s="16">
         <v>60</v>
       </c>
@@ -2475,25 +2449,23 @@
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
       <c r="N32" s="14">
         <v>100</v>
       </c>
@@ -2501,61 +2473,59 @@
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2588,6 +2558,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H10:K11"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="N10:O11"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="L10:M11"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="H12:K13"/>
+    <mergeCell ref="H14:K15"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F13"/>
     <mergeCell ref="A34:O35"/>
     <mergeCell ref="A18:B19"/>
     <mergeCell ref="A20:B21"/>
@@ -2604,84 +2652,6 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="H12:K13"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="N10:O11"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="L10:M11"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="H10:K11"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
@@ -2722,69 +2692,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="42" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="44"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -2793,480 +2763,480 @@
       <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
       <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="46"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="65"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="68"/>
       <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="8">
         <v>3</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="49"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="65"/>
       <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="53" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="55"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="59"/>
       <c r="P8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56" t="s">
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56" t="s">
+      <c r="M9" s="47"/>
+      <c r="N9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="57"/>
+      <c r="O9" s="60"/>
       <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66">
+      <c r="B10" s="28"/>
+      <c r="C10" s="33">
         <v>10.17</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="31">
+      <c r="D10" s="39"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="34">
         <v>1</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="64"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="64"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66">
+      <c r="B12" s="28"/>
+      <c r="C12" s="33">
         <v>10.18</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="31">
+      <c r="D12" s="39"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="34">
         <v>2</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="64"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="64"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66">
+      <c r="B14" s="28"/>
+      <c r="C14" s="33">
         <v>10.19</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="31">
+      <c r="D14" s="39"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="34">
         <v>3</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="64"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="64"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="66" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="31">
+      <c r="D16" s="39"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="34">
         <v>4</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="64"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="64"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66">
+      <c r="B18" s="28"/>
+      <c r="C18" s="33">
         <v>10.210000000000001</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="31">
+      <c r="D18" s="39"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="34">
         <v>5</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="32"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="49"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="51"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66">
+      <c r="B20" s="28"/>
+      <c r="C20" s="33">
         <v>10.220000000000001</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="31">
+      <c r="D20" s="39"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="34">
         <v>6</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="32"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="49"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="34"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="51"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="66">
+      <c r="B22" s="28"/>
+      <c r="C22" s="33">
         <v>10.23</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="31">
+      <c r="D22" s="39"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="34">
         <v>7</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="32"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="1:16" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="34"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="51"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="21" t="s">
         <v>28</v>
       </c>
@@ -3274,215 +3244,215 @@
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="62"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="13">
         <v>10.24</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
       <c r="N26" s="14"/>
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="60"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="15">
         <v>10.25</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="62"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="13">
         <v>10.26</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
       <c r="N28" s="14"/>
       <c r="O28" s="11"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="60"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="15">
         <v>10.27</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="62"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="13">
         <v>10.28</v>
       </c>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
       <c r="N30" s="14"/>
       <c r="O30" s="11"/>
       <c r="P30" s="7"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="60" t="s">
+      <c r="A31" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="60"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="15">
         <v>10.29</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
       <c r="P31" s="7"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="62"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
       <c r="N32" s="14"/>
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="32"/>
       <c r="P33" s="7"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="73"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="25"/>
       <c r="P34" s="7"/>
     </row>
     <row r="35" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="75"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
       <c r="P35" s="7"/>
     </row>
     <row r="36" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3515,25 +3485,65 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="G8:O8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A34:O35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:M30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:M29"/>
+    <mergeCell ref="A33:O33"/>
+    <mergeCell ref="N22:O23"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:M25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:K23"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="L18:M19"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:K21"/>
+    <mergeCell ref="L20:M21"/>
+    <mergeCell ref="N20:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:K19"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:K15"/>
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="N10:O11"/>
     <mergeCell ref="A12:B13"/>
@@ -3550,65 +3560,25 @@
     <mergeCell ref="E10:F11"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:K11"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:K15"/>
-    <mergeCell ref="L18:M19"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:K21"/>
-    <mergeCell ref="L20:M21"/>
-    <mergeCell ref="N20:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:K19"/>
-    <mergeCell ref="N22:O23"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:M25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:K23"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:M28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:M29"/>
-    <mergeCell ref="A33:O33"/>
-    <mergeCell ref="A34:O35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:M30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:M32"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="G8:O8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="H4:O4"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.59027777777777779" bottom="0.39305555555555555" header="0.51111111111111107" footer="0.19652777777777777"/>
